--- a/Lista de tareas.xlsx
+++ b/Lista de tareas.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\___Dionis_MO\Articulos\IMPLEMENTACION\SOURCE\Inoid_ABSA_DL\Phd_Source\Spanish_Hakaton\NLP-clasificador-tesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cursos\Hackathon\ClasificadorTesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3AB8B6A-79B2-406B-8444-AAF4EFD0B0AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tareas" sheetId="1" r:id="rId1"/>
@@ -19,15 +20,25 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tareas!$A$3:$C$51</definedName>
     <definedName name="Z_64CE73A0_0C63_4AAF_BA9F_244C50BF35B8_.wvu.FilterData" localSheetId="0" hidden="1">Tareas!$A$3:$D$50</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <customWorkbookViews>
     <customWorkbookView name="Filtro 1" guid="{64CE73A0-0C63-4AAF-BA9F-244C50BF35B8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="37">
   <si>
     <t xml:space="preserve">
  Tareas</t>
@@ -144,12 +155,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd&quot;/&quot;mm"/>
     <numFmt numFmtId="165" formatCode="m&quot;/&quot;d"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -217,7 +228,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -245,11 +256,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -283,13 +303,17 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -582,18 +606,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.88671875" customWidth="1"/>
     <col min="2" max="2" width="27.21875" customWidth="1"/>
@@ -601,24 +625,24 @@
     <col min="4" max="4" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="52.5" customHeight="1">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14"/>
+    <row r="1" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15"/>
       <c r="C1" s="1" t="str">
         <f>CONCATENATE(COUNTIF($A$4:$A$51,TRUE), "/", COUNTA($C$4:$C$51), " completadas  ")</f>
         <v xml:space="preserve">0/9 completadas  </v>
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" ht="6" customHeight="1">
+    <row r="2" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" ht="30" customHeight="1">
+    <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -632,7 +656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="26.25" customHeight="1">
+    <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="b">
         <v>0</v>
       </c>
@@ -646,7 +670,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="26.25" customHeight="1">
+    <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="b">
         <v>0</v>
       </c>
@@ -660,12 +684,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="26.25" customHeight="1">
+    <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="b">
         <v>0</v>
       </c>
       <c r="B6" s="7">
-        <v>44690</v>
+        <v>44660</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>8</v>
@@ -674,7 +698,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="26.25" customHeight="1">
+    <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="b">
         <v>0</v>
       </c>
@@ -688,7 +712,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="26.25" customHeight="1">
+    <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="b">
         <v>0</v>
       </c>
@@ -700,7 +724,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="26.25" customHeight="1">
+    <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="b">
         <v>0</v>
       </c>
@@ -712,7 +736,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="26.25" customHeight="1">
+    <row r="10" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="b">
         <v>0</v>
       </c>
@@ -724,7 +748,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="26.25" customHeight="1">
+    <row r="11" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="b">
         <v>0</v>
       </c>
@@ -736,7 +760,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="26.25" customHeight="1">
+    <row r="12" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="b">
         <v>0</v>
       </c>
@@ -748,7 +772,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="26.25" customHeight="1">
+    <row r="13" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="b">
         <v>0</v>
       </c>
@@ -756,7 +780,7 @@
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="1:4" ht="26.25" customHeight="1">
+    <row r="14" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="b">
         <v>0</v>
       </c>
@@ -764,7 +788,7 @@
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="1:4" ht="26.25" customHeight="1">
+    <row r="15" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="b">
         <v>0</v>
       </c>
@@ -772,7 +796,7 @@
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:4" ht="26.25" customHeight="1">
+    <row r="16" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="b">
         <v>0</v>
       </c>
@@ -780,7 +804,7 @@
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="1:4" ht="26.25" customHeight="1">
+    <row r="17" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="b">
         <v>0</v>
       </c>
@@ -788,7 +812,7 @@
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:4" ht="26.25" customHeight="1">
+    <row r="18" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="b">
         <v>0</v>
       </c>
@@ -796,7 +820,7 @@
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="1:4" ht="26.25" customHeight="1">
+    <row r="19" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="b">
         <v>0</v>
       </c>
@@ -804,7 +828,7 @@
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
     </row>
-    <row r="20" spans="1:4" ht="26.25" customHeight="1">
+    <row r="20" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="b">
         <v>0</v>
       </c>
@@ -812,7 +836,7 @@
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
     </row>
-    <row r="21" spans="1:4" ht="26.25" customHeight="1">
+    <row r="21" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="b">
         <v>0</v>
       </c>
@@ -820,7 +844,7 @@
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4" ht="26.25" customHeight="1">
+    <row r="22" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="b">
         <v>0</v>
       </c>
@@ -828,7 +852,7 @@
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
     </row>
-    <row r="23" spans="1:4" ht="26.25" customHeight="1">
+    <row r="23" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="b">
         <v>0</v>
       </c>
@@ -836,7 +860,7 @@
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
     </row>
-    <row r="24" spans="1:4" ht="26.25" customHeight="1">
+    <row r="24" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="b">
         <v>0</v>
       </c>
@@ -844,7 +868,7 @@
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
     </row>
-    <row r="25" spans="1:4" ht="26.25" customHeight="1">
+    <row r="25" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="b">
         <v>0</v>
       </c>
@@ -852,7 +876,7 @@
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
     </row>
-    <row r="26" spans="1:4" ht="26.25" customHeight="1">
+    <row r="26" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="b">
         <v>0</v>
       </c>
@@ -860,7 +884,7 @@
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
     </row>
-    <row r="27" spans="1:4" ht="26.25" customHeight="1">
+    <row r="27" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="b">
         <v>0</v>
       </c>
@@ -868,7 +892,7 @@
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
     </row>
-    <row r="28" spans="1:4" ht="26.25" customHeight="1">
+    <row r="28" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="b">
         <v>0</v>
       </c>
@@ -876,7 +900,7 @@
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="1:4" ht="26.25" customHeight="1">
+    <row r="29" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="b">
         <v>0</v>
       </c>
@@ -884,7 +908,7 @@
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
     </row>
-    <row r="30" spans="1:4" ht="26.25" customHeight="1">
+    <row r="30" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="b">
         <v>0</v>
       </c>
@@ -892,7 +916,7 @@
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:4" ht="26.25" customHeight="1">
+    <row r="31" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="b">
         <v>0</v>
       </c>
@@ -900,7 +924,7 @@
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:4" ht="26.25" customHeight="1">
+    <row r="32" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="b">
         <v>0</v>
       </c>
@@ -908,7 +932,7 @@
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:4" ht="26.25" customHeight="1">
+    <row r="33" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="b">
         <v>0</v>
       </c>
@@ -916,7 +940,7 @@
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4" ht="26.25" customHeight="1">
+    <row r="34" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="b">
         <v>0</v>
       </c>
@@ -924,7 +948,7 @@
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4" ht="26.25" customHeight="1">
+    <row r="35" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="b">
         <v>0</v>
       </c>
@@ -932,7 +956,7 @@
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" ht="26.25" customHeight="1">
+    <row r="36" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="b">
         <v>0</v>
       </c>
@@ -940,7 +964,7 @@
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" ht="26.25" customHeight="1">
+    <row r="37" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="b">
         <v>0</v>
       </c>
@@ -948,7 +972,7 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4" ht="26.25" customHeight="1">
+    <row r="38" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="b">
         <v>0</v>
       </c>
@@ -956,7 +980,7 @@
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
     </row>
-    <row r="39" spans="1:4" ht="26.25" customHeight="1">
+    <row r="39" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="b">
         <v>0</v>
       </c>
@@ -964,7 +988,7 @@
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
     </row>
-    <row r="40" spans="1:4" ht="26.25" customHeight="1">
+    <row r="40" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="b">
         <v>0</v>
       </c>
@@ -972,7 +996,7 @@
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
     </row>
-    <row r="41" spans="1:4" ht="26.25" customHeight="1">
+    <row r="41" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="b">
         <v>0</v>
       </c>
@@ -980,7 +1004,7 @@
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
     </row>
-    <row r="42" spans="1:4" ht="26.25" customHeight="1">
+    <row r="42" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="b">
         <v>0</v>
       </c>
@@ -988,7 +1012,7 @@
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:4" ht="26.25" customHeight="1">
+    <row r="43" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="b">
         <v>0</v>
       </c>
@@ -996,7 +1020,7 @@
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="1:4" ht="26.25" customHeight="1">
+    <row r="44" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="b">
         <v>0</v>
       </c>
@@ -1004,7 +1028,7 @@
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
     </row>
-    <row r="45" spans="1:4" ht="26.25" customHeight="1">
+    <row r="45" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="b">
         <v>0</v>
       </c>
@@ -1012,7 +1036,7 @@
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
     </row>
-    <row r="46" spans="1:4" ht="26.25" customHeight="1">
+    <row r="46" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="b">
         <v>0</v>
       </c>
@@ -1020,7 +1044,7 @@
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
     </row>
-    <row r="47" spans="1:4" ht="26.25" customHeight="1">
+    <row r="47" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="b">
         <v>0</v>
       </c>
@@ -1028,7 +1052,7 @@
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
     </row>
-    <row r="48" spans="1:4" ht="26.25" customHeight="1">
+    <row r="48" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="b">
         <v>0</v>
       </c>
@@ -1036,7 +1060,7 @@
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
     </row>
-    <row r="49" spans="1:4" ht="26.25" customHeight="1">
+    <row r="49" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="b">
         <v>0</v>
       </c>
@@ -1044,7 +1068,7 @@
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
     </row>
-    <row r="50" spans="1:4" ht="26.25" customHeight="1">
+    <row r="50" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="b">
         <v>0</v>
       </c>
@@ -1052,18 +1076,18 @@
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="1:4" ht="22.5" hidden="1" customHeight="1">
+    <row r="51" spans="1:4" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="9"/>
       <c r="C51" s="8"/>
       <c r="D51" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C51"/>
+  <autoFilter ref="A3:C51" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <customSheetViews>
     <customSheetView guid="{64CE73A0-0C63-4AAF-BA9F-244C50BF35B8}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A3:D50"/>
+      <autoFilter ref="A3:D50" xr:uid="{3B5E0CBD-0FD1-4703-A74B-80D136843B54}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">
@@ -1079,17 +1103,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.5546875" customWidth="1"/>
     <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
@@ -1099,7 +1123,7 @@
     <col min="8" max="8" width="42.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>10</v>
       </c>
@@ -1125,7 +1149,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>15</v>
       </c>
@@ -1138,7 +1162,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>15</v>
       </c>
@@ -1151,7 +1175,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>15</v>
       </c>
@@ -1164,7 +1188,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>15</v>
       </c>
@@ -1177,7 +1201,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>15</v>
       </c>
@@ -1190,7 +1214,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>15</v>
       </c>
@@ -1203,7 +1227,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>15</v>
       </c>
@@ -1216,24 +1240,191 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="16" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="75.599999999999994" customHeight="1">
-      <c r="A11" s="12" t="s">
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+    </row>
+    <row r="27" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H27" s="13" t="s">
         <v>31</v>
       </c>
     </row>
